--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1678534.587122993</v>
+        <v>1676157.960175627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.99112361440349</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9699356084044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>176.6320471120328</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>183.5075633549403</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>54.12892216487084</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>280.3804015942642</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>79.41653965146619</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>18.8607367074913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>1.782072264243446</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>247.8676519362624</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>24.55276019063763</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.80852063340611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.77749086859546</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>20.38427178197973</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>94.56071137692086</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654825</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>31.40247677523011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.0780236353769</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4525633547252</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.74735985927992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4418041083146</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156549768</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.13627195705825</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1163.744434193592</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.744434193592</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.744434193592</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953475</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,7 +4343,7 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
@@ -4355,7 +4355,7 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
@@ -4370,10 +4370,10 @@
         <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="Y2" t="n">
-        <v>1163.744434193592</v>
+        <v>1644.25053145306</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296772</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129069</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400156</v>
@@ -4434,25 +4434,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386097</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1458.029910870424</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1235.05143006516</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>945.9330925689973</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>691.2486043631104</v>
       </c>
       <c r="W4" t="n">
-        <v>385.0914841366271</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386097</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386097</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.247820471429</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C5" t="n">
-        <v>846.285303531017</v>
+        <v>1859.93196259204</v>
       </c>
       <c r="D5" t="n">
-        <v>488.0196049242665</v>
+        <v>1501.666263985289</v>
       </c>
       <c r="E5" t="n">
-        <v>488.0196049242665</v>
+        <v>1115.878011387045</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>704.8921065974375</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.84766053555</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.84766053555</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744468</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>131.4655134886761</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>131.4655134886761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588.383781964454</v>
+        <v>1588.713578732509</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1219.751061792098</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>861.4853631853473</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>475.6971105871031</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>64.7112057974955</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>53.04685956218843</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.523113940265</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y8" t="n">
-        <v>1588.383781964454</v>
+        <v>1975.313418796631</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800292</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500111</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625327</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217528</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897736</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.931248730033</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2548.22367869607</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.9442613508774</v>
+        <v>689.9034178578802</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>520.9672349299733</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>370.8505955176375</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>222.9375019352444</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063345</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1158.783151063345</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1158.783151063345</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.592726181117</v>
+        <v>871.5518826881199</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032295</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2418.905011995821</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2236.050177650725</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2016.448712673667</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.373486017864</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769994</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334693</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5294,13 +5294,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>372.4964262156759</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314346</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612593</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711974</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462335</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.1760994014371</v>
+        <v>1234.477830318805</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983534</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711983</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888052</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057747</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.021500885211</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622216</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343147</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219789</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395858</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>302.4540366416754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565554</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2579373565554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832658</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176856</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970969</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035991</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892461</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.454437538930094</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154985</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>35.19601322587837</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.357606045726609e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.5977558415262</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8002026072661</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.68610972170697</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>220.7351665485979</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.44497470121411</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.37941682721205</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.8372934928149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>99.26785128072254</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306786</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741425</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894570.6432741424</v>
+        <v>894570.6432741423</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26320,22 +26320,22 @@
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>524645.2897985037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26344,16 +26344,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719679</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-807126.2691507249</v>
       </c>
       <c r="C6" t="n">
-        <v>307625.5144251956</v>
+        <v>307625.5144251953</v>
       </c>
       <c r="D6" t="n">
         <v>307625.5144251953</v>
       </c>
       <c r="E6" t="n">
-        <v>-91470.05011166925</v>
+        <v>-91504.78803710417</v>
       </c>
       <c r="F6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="G6" t="n">
-        <v>416015.391512877</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="H6" t="n">
-        <v>416015.3915128772</v>
+        <v>415980.6535874411</v>
       </c>
       <c r="I6" t="n">
-        <v>416015.3915128773</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="J6" t="n">
-        <v>248410.2137028946</v>
+        <v>248375.4757774588</v>
       </c>
       <c r="K6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="L6" t="n">
-        <v>416015.3915128772</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="M6" t="n">
-        <v>283408.0977839503</v>
+        <v>283373.3598585149</v>
       </c>
       <c r="N6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874414</v>
       </c>
       <c r="O6" t="n">
-        <v>416015.3915128774</v>
+        <v>415980.6535874415</v>
       </c>
       <c r="P6" t="n">
-        <v>416015.3915128771</v>
+        <v>415980.6535874415</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.6919180062795</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>280.2680030476492</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.03041324970468</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>103.0154349816507</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>352.7471235768406</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>131.1673011786898</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>69.19893336674616</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>267.6622616290997</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.236480298162</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8634487422067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.7538398541666</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.7761327186887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.044307409159484e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>266.3926848685833</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>614.59004755871</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>344.9857809048118</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434849</v>
@@ -34784,10 +34784,10 @@
         <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>584.5244463807094</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9351598697847</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620054</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>14.25823202432846</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>128.5512458942243</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>566.8045140811964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>471.9938031142656</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
